--- a/IN4RE/TestData/Purchase/PurchaseOrder.xlsx
+++ b/IN4RE/TestData/Purchase/PurchaseOrder.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5320EF34-7270-476F-81B6-D7052BCAE5F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA623CB5-2F87-4A04-8F5D-9813F908BAE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Create_PO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,7 +379,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +392,7 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">

--- a/IN4RE/TestData/Purchase/PurchaseOrder.xlsx
+++ b/IN4RE/TestData/Purchase/PurchaseOrder.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA623CB5-2F87-4A04-8F5D-9813F908BAE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CA54B-A46C-41CC-B460-EE4931DA3F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_PO" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,15 +72,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,13 +94,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -376,42 +400,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="2">
+        <f>+I1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -433,8 +466,55 @@
       <c r="G2">
         <v>27</v>
       </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6D7D4B0-BCCE-4F27-98FB-E17E6013D0A1}">
+          <x14:formula1>
+            <xm:f>Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF103EC-55DC-4C75-AF9B-8C4809C8320F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>